--- a/utils/localisation_script/excel_to_json/hi/r.xlsx
+++ b/utils/localisation_script/excel_to_json/hi/r.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Projects/Open-Speech-EkStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/hi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/hi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5899E1-F698-CE41-AC4C-48ACA233498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53740CC-1B5F-6849-AE38-2AA8EC8ECAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="287">
   <si>
     <t>x</t>
   </si>
@@ -343,9 +343,6 @@
     <t>“X” s validated in “Y"</t>
   </si>
   <si>
-    <t>Contribute 5 recordings to earn your Bronze Bhasha Samarthak Badge.</t>
-  </si>
-  <si>
     <t>Contribute x recordings to earn your Silver Bhasha Samarthak Badge.</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
   </si>
   <si>
     <t>Contribute x recordings to earn your Platinum Bhasha Samarthak Badge.</t>
-  </si>
-  <si>
-    <t>Validate x recordings to earn your Bronze Bhasha Samarthak Badge.</t>
   </si>
   <si>
     <t>Validate 50 recordings to earn your Silver Bhasha Samarthak Badge.</t>
@@ -418,9 +412,6 @@
     <t>You've earned a Platinum Bhasha Samarthak Badge by contributing 200 sentences.</t>
   </si>
   <si>
-    <t>You've earned a Bronze Bhasha Samarthak Badge by contributing 5 recordings.</t>
-  </si>
-  <si>
     <t>You've earned a Silver Bhasha Samarthak Badge by contributing 50 recordings.</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
   </si>
   <si>
     <t>You've earned a Platinum Bhasha Samarthak Badge by contributing 200 recordings.</t>
-  </si>
-  <si>
-    <t>You've earned a Bronze Bhasha Samarthak Badge by validating 5 recordings.</t>
   </si>
   <si>
     <t>You've earned a Silver Bhasha Samarthak Badge by validating 50 recordings.</t>
@@ -733,9 +721,6 @@
     <t>"Y" में "X" सेकंड सत्यापित किए गए</t>
   </si>
   <si>
-    <t>अपना ब्रोंज/कांस्य भाषा समर्थक बैज जीतने के लिए 5 रिकॉर्डिंग का योगदान करें।</t>
-  </si>
-  <si>
     <t>अपना सिल्वर/रजत भाषा समर्थक बैज जीतने के लिए x रिकॉर्डिंग का योगदान करें।</t>
   </si>
   <si>
@@ -746,9 +731,6 @@
   </si>
   <si>
     <t>अपना सिल्वर/रजत भाषा समर्थक बैज जीतने के लिए 50 रिकॉर्डिंग का सत्यापन करें।</t>
-  </si>
-  <si>
-    <t>अपना ब्रोंज/कांस्य भाषा समर्थक बैज जीतने के लिए x रिकॉर्डिंग का सत्यापन करें।</t>
   </si>
   <si>
     <t>आप अपना गोल्ड/स्वर्ण भाषा समर्थक बैज जीतने के लिए 100 रिकॉर्डिंग का सत्यापन करें।</t>
@@ -808,9 +790,6 @@
     <t>आपने 200 वाक्यों का योगदान करके एक प्लैटिनम भाषा समर्थक बैज जीता है।</t>
   </si>
   <si>
-    <t>आपने 5 रिकॉर्डिंग का योगदान करके एक ब्रोंज/कांस्य भाषा समर्थक बैज जीता है।</t>
-  </si>
-  <si>
     <t>आपने 50 रिकॉर्डिंग का योगदान करके एक सिल्वर/रजत भाषा समर्थक बैज जीता है।</t>
   </si>
   <si>
@@ -818,9 +797,6 @@
   </si>
   <si>
     <t>आपने 200 रिकॉर्डिंग का योगदान करके एक प्लैटिनम भाषा समर्थक बैज जीता है।</t>
-  </si>
-  <si>
-    <t>आपने 5 रिकॉर्डिंग को सत्यापित करके एक ब्रोंज/कांस्य भाषा समर्थक बैज जीता है।</t>
   </si>
   <si>
     <t>आपने 50 रिकॉर्डिंग को सत्यापित करके एक सिल्वर/रजत भाषा समर्थक बैज जीता है।</t>
@@ -839,6 +815,72 @@
   </si>
   <si>
     <t>English copy</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by validating &lt;y&gt; sentences.</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by contributing &lt;y&gt; sentences.</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by contributing &lt;y&gt; recordings.</t>
+  </si>
+  <si>
+    <t>आपने &lt;y&gt; रिकॉर्डिंग का योगदान करके एक &lt;x&gt; भाषा समर्थक बैज जीता है।</t>
+  </si>
+  <si>
+    <t>आपने &lt;y&gt; वाक्यों का योगदान करके एक &lt;x&gt; भाषा समर्थक बैज जीता है।</t>
+  </si>
+  <si>
+    <t>आपने &lt;y&gt; वाक्यों को सत्यापित करके एक &lt;x&gt; भाषा समर्थक बैज जीता है।</t>
+  </si>
+  <si>
+    <t>Validate &lt;x&gt; recordings to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>अपना &lt;y&gt; भाषा समर्थक बैज जीतने के लिए &lt;x&gt; रिकॉर्डिंग का सत्यापन करें।</t>
+  </si>
+  <si>
+    <t>Contribute &lt;x&gt; recordings to earn your &lt;y&gt; Bhasha Samarthak Badge.</t>
+  </si>
+  <si>
+    <t>अपना &lt;y&gt; भाषा समर्थक बैज जीतने के लिए &lt;x&gt; रिकॉर्डिंग का योगदान करें।</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by labelling &lt;y&gt; Images.</t>
+  </si>
+  <si>
+    <t>आपने &lt;y&gt; इमेज को लेबल करके एक &lt;x&gt; भाषा समर्थक बैज जीता है।</t>
+  </si>
+  <si>
+    <t>You've earned a &lt;x&gt; Bhasha Samarthak Badge by validating &lt;y&gt; recordings.</t>
+  </si>
+  <si>
+    <t>आपने &lt;y&gt; रिकॉर्डिंग को सत्यापित करके एक &lt;x&gt; भाषा समर्थक बैज जीता है।</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>ब्रोंज</t>
+  </si>
+  <si>
+    <t>सिल्वर</t>
+  </si>
+  <si>
+    <t>गोल्ड</t>
+  </si>
+  <si>
+    <t>प्लैटिनम</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,6 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,10 +1292,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA988"/>
+  <dimension ref="A1:AA992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1301,13 +1344,13 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>0</v>
@@ -1346,7 +1389,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1381,7 +1424,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1416,7 +1459,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1451,7 +1494,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1486,7 +1529,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1521,7 +1564,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1556,7 +1599,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>9</v>
@@ -1593,7 +1636,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1628,7 +1671,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1663,7 +1706,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1698,7 +1741,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>14</v>
@@ -1735,7 +1778,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>14</v>
@@ -1772,7 +1815,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1807,7 +1850,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1842,7 +1885,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1877,7 +1920,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1912,7 +1955,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1947,7 +1990,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1982,7 +2025,7 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2017,7 +2060,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2052,7 +2095,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2087,7 +2130,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2122,7 +2165,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2157,7 +2200,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2192,7 +2235,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -2227,7 +2270,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2262,7 +2305,7 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2297,7 +2340,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2332,7 +2375,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2367,7 +2410,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2402,7 +2445,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2437,7 +2480,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2472,7 +2515,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2507,7 +2550,7 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2542,7 +2585,7 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2577,7 +2620,7 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2612,7 +2655,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2647,7 +2690,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2682,7 +2725,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2717,7 +2760,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2752,7 +2795,7 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2787,7 +2830,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2822,17 +2865,17 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2861,7 +2904,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2895,7 +2938,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2930,7 +2973,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -2965,17 +3008,17 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3004,7 +3047,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -3039,7 +3082,7 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -3074,7 +3117,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -3109,17 +3152,17 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3148,7 +3191,7 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -3183,7 +3226,7 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -3218,7 +3261,7 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -3253,17 +3296,17 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3292,7 +3335,7 @@
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -3327,7 +3370,7 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -3362,7 +3405,7 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -3397,7 +3440,7 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -3432,7 +3475,7 @@
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -3467,17 +3510,17 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3506,17 +3549,17 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3545,17 +3588,17 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3584,17 +3627,17 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3623,7 +3666,7 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -3658,7 +3701,7 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -3693,7 +3736,7 @@
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -3728,17 +3771,17 @@
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3767,17 +3810,17 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3806,7 +3849,7 @@
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -3841,7 +3884,7 @@
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -3876,17 +3919,17 @@
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3915,7 +3958,7 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -3950,7 +3993,7 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -3985,7 +4028,7 @@
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -4020,7 +4063,7 @@
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -4055,7 +4098,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4090,7 +4133,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4125,7 +4168,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -4160,7 +4203,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -4195,7 +4238,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4230,7 +4273,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4265,7 +4308,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4300,7 +4343,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4335,7 +4378,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4370,7 +4413,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -4405,7 +4448,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4440,7 +4483,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4475,7 +4518,7 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4512,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4549,7 +4592,7 @@
         <v>102</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4586,7 +4629,7 @@
         <v>104</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4623,7 +4666,7 @@
         <v>102</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4660,7 +4703,7 @@
         <v>104</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4691,11 +4734,11 @@
         <v>95</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="20" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4726,11 +4769,11 @@
         <v>96</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4761,11 +4804,11 @@
         <v>97</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4796,11 +4839,11 @@
         <v>98</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4831,11 +4874,11 @@
         <v>99</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="20" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4866,11 +4909,11 @@
         <v>100</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4901,11 +4944,11 @@
         <v>101</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4936,11 +4979,11 @@
         <v>102</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="20" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4965,17 +5008,15 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="28">
+    <row r="105" spans="1:27" s="25" customFormat="1" ht="28">
       <c r="A105" s="7"/>
-      <c r="B105" s="7">
-        <v>103</v>
-      </c>
+      <c r="B105" s="7"/>
       <c r="C105" s="16" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="22" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -5003,14 +5044,14 @@
     <row r="106" spans="1:27" ht="28">
       <c r="A106" s="7"/>
       <c r="B106" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -5038,14 +5079,14 @@
     <row r="107" spans="1:27" ht="28">
       <c r="A107" s="7"/>
       <c r="B107" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -5073,14 +5114,14 @@
     <row r="108" spans="1:27" ht="28">
       <c r="A108" s="7"/>
       <c r="B108" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -5108,14 +5149,14 @@
     <row r="109" spans="1:27" ht="28">
       <c r="A109" s="7"/>
       <c r="B109" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -5143,14 +5184,14 @@
     <row r="110" spans="1:27" ht="28">
       <c r="A110" s="7"/>
       <c r="B110" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5178,14 +5219,14 @@
     <row r="111" spans="1:27" ht="28">
       <c r="A111" s="7"/>
       <c r="B111" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5213,14 +5254,14 @@
     <row r="112" spans="1:27" ht="28">
       <c r="A112" s="7"/>
       <c r="B112" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -5245,17 +5286,17 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="20">
+    <row r="113" spans="1:27" ht="28">
       <c r="A113" s="7"/>
       <c r="B113" s="7">
-        <v>111</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -5280,17 +5321,17 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="28">
+    <row r="114" spans="1:27" ht="20">
       <c r="A114" s="7"/>
       <c r="B114" s="7">
-        <v>112</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -5315,17 +5356,15 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="28">
+    <row r="115" spans="1:27" s="25" customFormat="1" ht="28">
       <c r="A115" s="7"/>
-      <c r="B115" s="7">
-        <v>113</v>
-      </c>
+      <c r="B115" s="7"/>
       <c r="C115" s="16" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="22" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -5353,14 +5392,14 @@
     <row r="116" spans="1:27" ht="28">
       <c r="A116" s="7"/>
       <c r="B116" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5388,14 +5427,14 @@
     <row r="117" spans="1:27" ht="28">
       <c r="A117" s="7"/>
       <c r="B117" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="22" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5423,14 +5462,14 @@
     <row r="118" spans="1:27" ht="28">
       <c r="A118" s="7"/>
       <c r="B118" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="22" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -5458,14 +5497,14 @@
     <row r="119" spans="1:27" ht="28">
       <c r="A119" s="7"/>
       <c r="B119" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="22" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -5490,17 +5529,15 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="28">
+    <row r="120" spans="1:27" s="25" customFormat="1" ht="28">
       <c r="A120" s="7"/>
-      <c r="B120" s="7">
-        <v>118</v>
-      </c>
+      <c r="B120" s="7"/>
       <c r="C120" s="16" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="22" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -5528,14 +5565,14 @@
     <row r="121" spans="1:27" ht="28">
       <c r="A121" s="7"/>
       <c r="B121" s="7">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="22" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5563,14 +5600,14 @@
     <row r="122" spans="1:27" ht="28">
       <c r="A122" s="7"/>
       <c r="B122" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="22" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -5598,14 +5635,14 @@
     <row r="123" spans="1:27" ht="28">
       <c r="A123" s="7"/>
       <c r="B123" s="7">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -5633,14 +5670,14 @@
     <row r="124" spans="1:27" ht="28">
       <c r="A124" s="7"/>
       <c r="B124" s="7">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -5665,17 +5702,15 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="28">
+    <row r="125" spans="1:27" s="25" customFormat="1" ht="28">
       <c r="A125" s="7"/>
-      <c r="B125" s="7">
-        <v>123</v>
-      </c>
+      <c r="B125" s="7"/>
       <c r="C125" s="16" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="22" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5703,14 +5738,14 @@
     <row r="126" spans="1:27" ht="28">
       <c r="A126" s="7"/>
       <c r="B126" s="7">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -5738,14 +5773,14 @@
     <row r="127" spans="1:27" ht="28">
       <c r="A127" s="7"/>
       <c r="B127" s="7">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="22" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -5773,14 +5808,14 @@
     <row r="128" spans="1:27" ht="28">
       <c r="A128" s="7"/>
       <c r="B128" s="7">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="22" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -5808,14 +5843,14 @@
     <row r="129" spans="1:27" ht="28">
       <c r="A129" s="7"/>
       <c r="B129" s="7">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="22" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -5840,17 +5875,17 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="20">
+    <row r="130" spans="1:27" ht="28">
       <c r="A130" s="7"/>
       <c r="B130" s="7">
-        <v>128</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="23" t="s">
-        <v>208</v>
+      <c r="E130" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -5875,17 +5910,17 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="20">
+    <row r="131" spans="1:27" ht="28">
       <c r="A131" s="7"/>
       <c r="B131" s="7">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="22" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -5910,12 +5945,18 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
+    <row r="132" spans="1:27" ht="28">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7">
+        <v>126</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="24"/>
+      <c r="E132" s="22" t="s">
+        <v>260</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5939,12 +5980,18 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="13">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="2"/>
+    <row r="133" spans="1:27" ht="28">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7">
+        <v>127</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="22" t="s">
+        <v>261</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5968,12 +6015,18 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="13">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="2"/>
+    <row r="134" spans="1:27" ht="20">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7">
+        <v>128</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="23" t="s">
+        <v>204</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -5997,12 +6050,18 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="13">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="2"/>
+    <row r="135" spans="1:27" ht="20">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7">
+        <v>129</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -6026,12 +6085,16 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="13">
+    <row r="136" spans="1:27" ht="14">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="24" t="s">
+        <v>279</v>
+      </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -6055,12 +6118,16 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="13">
+    <row r="137" spans="1:27" ht="14">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="24" t="s">
+        <v>280</v>
+      </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -6084,12 +6151,16 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="13">
+    <row r="138" spans="1:27" ht="14">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="24" t="s">
+        <v>281</v>
+      </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -6113,12 +6184,16 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="13">
+    <row r="139" spans="1:27" ht="14">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -30763,19 +30838,135 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
+    <row r="989" spans="1:27" ht="13">
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1"/>
+      <c r="F989" s="1"/>
+      <c r="G989" s="1"/>
+      <c r="H989" s="1"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+      <c r="K989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="P989" s="1"/>
+      <c r="Q989" s="1"/>
+      <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="T989" s="1"/>
+      <c r="U989" s="1"/>
+      <c r="V989" s="1"/>
+      <c r="W989" s="1"/>
+      <c r="X989" s="1"/>
+      <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
+      <c r="AA989" s="1"/>
+    </row>
+    <row r="990" spans="1:27" ht="13">
+      <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
+      <c r="C990" s="2"/>
+      <c r="D990" s="1"/>
+      <c r="E990" s="1"/>
+      <c r="F990" s="1"/>
+      <c r="G990" s="1"/>
+      <c r="H990" s="1"/>
+      <c r="I990" s="1"/>
+      <c r="J990" s="1"/>
+      <c r="K990" s="1"/>
+      <c r="L990" s="1"/>
+      <c r="M990" s="1"/>
+      <c r="N990" s="1"/>
+      <c r="O990" s="1"/>
+      <c r="P990" s="1"/>
+      <c r="Q990" s="1"/>
+      <c r="R990" s="1"/>
+      <c r="S990" s="1"/>
+      <c r="T990" s="1"/>
+      <c r="U990" s="1"/>
+      <c r="V990" s="1"/>
+      <c r="W990" s="1"/>
+      <c r="X990" s="1"/>
+      <c r="Y990" s="1"/>
+      <c r="Z990" s="1"/>
+      <c r="AA990" s="1"/>
+    </row>
+    <row r="991" spans="1:27" ht="13">
+      <c r="A991" s="1"/>
+      <c r="B991" s="1"/>
+      <c r="C991" s="2"/>
+      <c r="D991" s="1"/>
+      <c r="E991" s="1"/>
+      <c r="F991" s="1"/>
+      <c r="G991" s="1"/>
+      <c r="H991" s="1"/>
+      <c r="I991" s="1"/>
+      <c r="J991" s="1"/>
+      <c r="K991" s="1"/>
+      <c r="L991" s="1"/>
+      <c r="M991" s="1"/>
+      <c r="N991" s="1"/>
+      <c r="O991" s="1"/>
+      <c r="P991" s="1"/>
+      <c r="Q991" s="1"/>
+      <c r="R991" s="1"/>
+      <c r="S991" s="1"/>
+      <c r="T991" s="1"/>
+      <c r="U991" s="1"/>
+      <c r="V991" s="1"/>
+      <c r="W991" s="1"/>
+      <c r="X991" s="1"/>
+      <c r="Y991" s="1"/>
+      <c r="Z991" s="1"/>
+      <c r="AA991" s="1"/>
+    </row>
+    <row r="992" spans="1:27" ht="13">
+      <c r="A992" s="1"/>
+      <c r="B992" s="1"/>
+      <c r="C992" s="2"/>
+      <c r="D992" s="1"/>
+      <c r="E992" s="1"/>
+      <c r="F992" s="1"/>
+      <c r="G992" s="1"/>
+      <c r="H992" s="1"/>
+      <c r="I992" s="1"/>
+      <c r="J992" s="1"/>
+      <c r="K992" s="1"/>
+      <c r="L992" s="1"/>
+      <c r="M992" s="1"/>
+      <c r="N992" s="1"/>
+      <c r="O992" s="1"/>
+      <c r="P992" s="1"/>
+      <c r="Q992" s="1"/>
+      <c r="R992" s="1"/>
+      <c r="S992" s="1"/>
+      <c r="T992" s="1"/>
+      <c r="U992" s="1"/>
+      <c r="V992" s="1"/>
+      <c r="W992" s="1"/>
+      <c r="X992" s="1"/>
+      <c r="Y992" s="1"/>
+      <c r="Z992" s="1"/>
+      <c r="AA992" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G63:J63"/>
     <mergeCell ref="G70:J70"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="G74:J74"/>
     <mergeCell ref="G64:J64"/>
     <mergeCell ref="G65:J65"/>
     <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G63:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
